--- a/output/Transitions Rule/summary_tables/transition_rule_summary_tables_HaltermanCarless.xlsx
+++ b/output/Transitions Rule/summary_tables/transition_rule_summary_tables_HaltermanCarless.xlsx
@@ -599,10 +599,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
         <v>30</v>
@@ -614,7 +614,7 @@
         <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -622,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.32</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.36</v>
-      </c>
       <c r="F10" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="C9" t="n">
         <v>7.5</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
@@ -866,22 +866,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.076</v>
+        <v>0.081</v>
       </c>
       <c r="D10" t="n">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.052</v>
+        <v>0.042</v>
       </c>
       <c r="F10" t="n">
-        <v>0.048</v>
+        <v>0.036</v>
       </c>
       <c r="G10" t="n">
-        <v>0.044</v>
+        <v>0.047</v>
       </c>
     </row>
   </sheetData>
